--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.40397433333333</v>
+        <v>4.547501666666666</v>
       </c>
       <c r="H2">
-        <v>70.211923</v>
+        <v>13.642505</v>
       </c>
       <c r="I2">
-        <v>0.5512176233382777</v>
+        <v>0.2029775505051628</v>
       </c>
       <c r="J2">
-        <v>0.5512176233382777</v>
+        <v>0.2029775505051628</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N2">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O2">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P2">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q2">
-        <v>431.6823981146197</v>
+        <v>34.81556816746166</v>
       </c>
       <c r="R2">
-        <v>3885.141583031577</v>
+        <v>313.340113507155</v>
       </c>
       <c r="S2">
-        <v>0.2917575023208454</v>
+        <v>0.0607876336170135</v>
       </c>
       <c r="T2">
-        <v>0.2917575023208454</v>
+        <v>0.06078763361701349</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.40397433333333</v>
+        <v>4.547501666666666</v>
       </c>
       <c r="H3">
-        <v>70.211923</v>
+        <v>13.642505</v>
       </c>
       <c r="I3">
-        <v>0.5512176233382777</v>
+        <v>0.2029775505051628</v>
       </c>
       <c r="J3">
-        <v>0.5512176233382777</v>
+        <v>0.2029775505051628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>24.086304</v>
       </c>
       <c r="O3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q3">
-        <v>187.905080200288</v>
+        <v>36.51083586127999</v>
       </c>
       <c r="R3">
-        <v>1691.145721802592</v>
+        <v>328.59752275152</v>
       </c>
       <c r="S3">
-        <v>0.126997804663969</v>
+        <v>0.0637475540456825</v>
       </c>
       <c r="T3">
-        <v>0.126997804663969</v>
+        <v>0.0637475540456825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.40397433333333</v>
+        <v>4.547501666666666</v>
       </c>
       <c r="H4">
-        <v>70.211923</v>
+        <v>13.642505</v>
       </c>
       <c r="I4">
-        <v>0.5512176233382777</v>
+        <v>0.2029775505051628</v>
       </c>
       <c r="J4">
-        <v>0.5512176233382777</v>
+        <v>0.2029775505051628</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N4">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O4">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P4">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q4">
-        <v>195.990334193353</v>
+        <v>44.92715488754111</v>
       </c>
       <c r="R4">
-        <v>1763.913007740177</v>
+        <v>404.34439398787</v>
       </c>
       <c r="S4">
-        <v>0.1324623163534633</v>
+        <v>0.07844236284246683</v>
       </c>
       <c r="T4">
-        <v>0.1324623163534633</v>
+        <v>0.07844236284246682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>30.643585</v>
       </c>
       <c r="I5">
-        <v>0.240575722363629</v>
+        <v>0.4559250534998339</v>
       </c>
       <c r="J5">
-        <v>0.240575722363629</v>
+        <v>0.4559250534998338</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N5">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O5">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P5">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q5">
-        <v>188.4052692821017</v>
+        <v>78.20219398584834</v>
       </c>
       <c r="R5">
-        <v>1695.647423538915</v>
+        <v>703.8197458726351</v>
       </c>
       <c r="S5">
-        <v>0.1273358631945819</v>
+        <v>0.1365402481209874</v>
       </c>
       <c r="T5">
-        <v>0.127335863194582</v>
+        <v>0.1365402481209874</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>30.643585</v>
       </c>
       <c r="I6">
-        <v>0.240575722363629</v>
+        <v>0.4559250534998339</v>
       </c>
       <c r="J6">
-        <v>0.240575722363629</v>
+        <v>0.4559250534998338</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>24.086304</v>
       </c>
       <c r="O6">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P6">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q6">
-        <v>82.01007821775998</v>
+        <v>82.01007821776</v>
       </c>
       <c r="R6">
-        <v>738.0907039598399</v>
+        <v>738.09070395984</v>
       </c>
       <c r="S6">
-        <v>0.05542745242903728</v>
+        <v>0.1431887758839719</v>
       </c>
       <c r="T6">
-        <v>0.05542745242903729</v>
+        <v>0.1431887758839719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>30.643585</v>
       </c>
       <c r="I7">
-        <v>0.240575722363629</v>
+        <v>0.4559250534998339</v>
       </c>
       <c r="J7">
-        <v>0.240575722363629</v>
+        <v>0.4559250534998338</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N7">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O7">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P7">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q7">
-        <v>85.53884024843499</v>
+        <v>100.9146846275322</v>
       </c>
       <c r="R7">
-        <v>769.849562235915</v>
+        <v>908.23216164779</v>
       </c>
       <c r="S7">
-        <v>0.0578124067400097</v>
+        <v>0.1761960294948746</v>
       </c>
       <c r="T7">
-        <v>0.05781240674000972</v>
+        <v>0.1761960294948746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.840180333333334</v>
+        <v>7.641933666666667</v>
       </c>
       <c r="H8">
-        <v>26.520541</v>
+        <v>22.925801</v>
       </c>
       <c r="I8">
-        <v>0.2082066542980934</v>
+        <v>0.3410973959950033</v>
       </c>
       <c r="J8">
-        <v>0.2082066542980934</v>
+        <v>0.3410973959950033</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N8">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O8">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P8">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q8">
-        <v>163.0556499382177</v>
+        <v>58.50646838752566</v>
       </c>
       <c r="R8">
-        <v>1467.500849443959</v>
+        <v>526.558215487731</v>
       </c>
       <c r="S8">
-        <v>0.1102030320741617</v>
+        <v>0.1021517083236958</v>
       </c>
       <c r="T8">
-        <v>0.1102030320741618</v>
+        <v>0.1021517083236958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.840180333333334</v>
+        <v>7.641933666666667</v>
       </c>
       <c r="H9">
-        <v>26.520541</v>
+        <v>22.925801</v>
       </c>
       <c r="I9">
-        <v>0.2082066542980934</v>
+        <v>0.3410973959950033</v>
       </c>
       <c r="J9">
-        <v>0.2082066542980934</v>
+        <v>0.3410973959950033</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>24.086304</v>
       </c>
       <c r="O9">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P9">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q9">
-        <v>70.97575697449601</v>
+        <v>61.355312481056</v>
       </c>
       <c r="R9">
-        <v>638.7818127704639</v>
+        <v>552.1978123295039</v>
       </c>
       <c r="S9">
-        <v>0.04796977979795226</v>
+        <v>0.1071257616022909</v>
       </c>
       <c r="T9">
-        <v>0.04796977979795227</v>
+        <v>0.1071257616022909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.840180333333334</v>
+        <v>7.641933666666667</v>
       </c>
       <c r="H10">
-        <v>26.520541</v>
+        <v>22.925801</v>
       </c>
       <c r="I10">
-        <v>0.2082066542980934</v>
+        <v>0.3410973959950033</v>
       </c>
       <c r="J10">
-        <v>0.2082066542980934</v>
+        <v>0.3410973959950033</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N10">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O10">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P10">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q10">
-        <v>74.02972987335102</v>
+        <v>75.49867216086378</v>
       </c>
       <c r="R10">
-        <v>666.267568860159</v>
+        <v>679.488049447774</v>
       </c>
       <c r="S10">
-        <v>0.05003384242597934</v>
+        <v>0.1318199260690166</v>
       </c>
       <c r="T10">
-        <v>0.05003384242597934</v>
+        <v>0.1318199260690166</v>
       </c>
     </row>
   </sheetData>
